--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln3-Rxfp1.xlsx
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05883533333333333</v>
+        <v>0.04554333333333333</v>
       </c>
       <c r="N2">
-        <v>0.176506</v>
+        <v>0.13663</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06214280082022222</v>
+        <v>0.04810358217888889</v>
       </c>
       <c r="R2">
-        <v>0.5592852073819999</v>
+        <v>0.43293223961</v>
       </c>
       <c r="S2">
         <v>1</v>
